--- a/templates/excel/omts-supplier-list-template.xlsx
+++ b/templates/excel/omts-supplier-list-template.xlsx
@@ -166,6 +166,131 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>OMTS</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Your organization's legal name.</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>ISO 8601 date (YYYY-MM-DD) when this supplier list was produced.</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Who will see this file: internal, partner, or public.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <t>Required. Legal name of the supplier organization.</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Optional dedup key. Rows sharing the same supplier_id collapse to a single organization node, even if names differ. Use when different business units refer to the same supplier by different names.</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <t>ISO 3166-1 alpha-2 country code of incorporation (e.g. GB, DE, CN).</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <t>Supply-chain tier: 1 = direct supplier, 2 = sub-supplier, 3 = sub-sub-supplier. Defaults to 1 if blank.</t>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <t>For tier 2/3 suppliers: name or supplier_id of the tier N-1 supplier they supply through. Must match a supplier_name or supplier_id in another row.</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <t>Optional. Your internal business unit that manages this supplier relationship. Allows the same supplier to appear on multiple rows with different risk profiles per BU.</t>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <t>HS/CN code or description of what this supplier provides (e.g. 7318.15). Each row represents one supply relationship — use multiple rows for multiple commodities.</t>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
+      <text>
+        <t>ISO 8601 date (YYYY-MM-DD) when this supply relationship started.</t>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <t>Annual procurement spend for this relationship (numeric).</t>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0">
+      <text>
+        <t>ISO 4217 currency code for annual_value (e.g. EUR, USD, GBP).</t>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0">
+      <text>
+        <t>Reference number of the governing contract or master service agreement.</t>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <t>Legal Entity Identifier (20-character alphanumeric, ISO 17442).</t>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0">
+      <text>
+        <t>D-U-N-S Number (9 digits, Dun &amp; Bradstreet).</t>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <t>VAT or tax identification number.</t>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0">
+      <text>
+        <t>ISO 3166-1 alpha-2 country that issued the VAT number.</t>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0" shapeId="0">
+      <text>
+        <t>Your internal system identifier for this supplier (e.g. SAP vendor number).</t>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0" shapeId="0">
+      <text>
+        <t>Risk classification for this relationship: critical, high, medium, or low. Stored per-relationship (edge), not per-supplier.</t>
+      </text>
+    </comment>
+    <comment ref="R4" authorId="0" shapeId="0">
+      <text>
+        <t>Kraljic portfolio classification: strategic, leverage, bottleneck, or non-critical. Stored per-relationship (edge).</t>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="0" shapeId="0">
+      <text>
+        <t>Supplier approval status for this relationship: approved, conditional, pending, blocked, or phase-out.</t>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0" shapeId="0">
+      <text>
+        <t>Free-text notes. Not imported into the OMTS graph — for human reference only.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -631,5 +756,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>